--- a/output/metric/all scores.xlsx
+++ b/output/metric/all scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Desktop\python projects\M5-kaggle\output\metric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB38188-EE88-44D1-93F0-0D6B44A9A210}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCF8C08-08C6-4EE5-8F0C-AEB726928991}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>date and time</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>lgbm2.Poe+simple.sub.csv</t>
+  </si>
+  <si>
+    <t>lgbm3</t>
+  </si>
+  <si>
+    <t>lags+simple</t>
+  </si>
+  <si>
+    <t>lags+simple.trn.feather</t>
+  </si>
+  <si>
+    <t>lgbm3.lags+simple.sub.csv</t>
+  </si>
+  <si>
+    <t>LB SCORE</t>
   </si>
 </sst>
 </file>
@@ -391,97 +406,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="1">
         <v>43835.605636574073</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <v>1.94750136482126</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0.59806999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="1">
         <v>43956.713194444441</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="F3">
         <v>1.8524116450000001</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0.59023000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44079.741979166669</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1.8400431127519701</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0.49668000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/metric/all scores.xlsx
+++ b/output/metric/all scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Desktop\python projects\M5-kaggle\output\metric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCF8C08-08C6-4EE5-8F0C-AEB726928991}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2731332-4F38-463D-9306-B9BA535D35E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>date and time</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>LB SCORE</t>
+  </si>
+  <si>
+    <t>lags2+simple</t>
+  </si>
+  <si>
+    <t>lags2+simple.trn.feather</t>
+  </si>
+  <si>
+    <t>lgbm3.lags2+simple.sub.csv</t>
   </si>
 </sst>
 </file>
@@ -406,17 +415,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" customWidth="1"/>
   </cols>
@@ -525,6 +535,29 @@
         <v>0.49668000000000001</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44109.035775462966</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>1.8418704486951001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/output/metric/all scores.xlsx
+++ b/output/metric/all scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Desktop\python projects\M5-kaggle\output\metric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2731332-4F38-463D-9306-B9BA535D35E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E278EEE-7252-48F6-986D-EA8302183ABC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>date and time</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>lgbm3.lags2+simple.sub.csv</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>best.trn.feather</t>
+  </si>
+  <si>
+    <t>lgbm3.best.sub.csv</t>
   </si>
 </sst>
 </file>
@@ -415,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +567,32 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44140.774085648147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1.92169486412754</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>0.60338999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/output/metric/all scores.xlsx
+++ b/output/metric/all scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Desktop\python projects\M5-kaggle\output\metric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E278EEE-7252-48F6-986D-EA8302183ABC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF64FD2-45A1-4394-975C-AC0FB0CA6579}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FE91262B-B65F-4A39-88B1-5594BA2F635F}</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{FE91262B-B65F-4A39-88B1-5594BA2F635F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    new validation with gap</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>date and time</t>
   </si>
@@ -106,19 +124,31 @@
   </si>
   <si>
     <t>lgbm3.best.sub.csv</t>
+  </si>
+  <si>
+    <t>lgbm4gap</t>
+  </si>
+  <si>
+    <t>lgbm4gap.best.sub.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,6 +189,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Attolini, Jacopo (UG - Surrey Business Schl)" id="{E2914124-9470-4309-873B-EFD5488AA3E2}" userId="Attolini, Jacopo (UG - Surrey Business Schl)" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,12 +458,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F7" dT="2020-05-12T12:27:15.84" personId="{E2914124-9470-4309-873B-EFD5488AA3E2}" id="{FE91262B-B65F-4A39-88B1-5594BA2F635F}">
+    <text>new validation with gap</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,8 +637,35 @@
         <v>0.60338999999999998</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44170.500173611108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>2.07528676586288</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>0.67664999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/metric/all scores.xlsx
+++ b/output/metric/all scores.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Desktop\python projects\M5-kaggle\output\metric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF64FD2-45A1-4394-975C-AC0FB0CA6579}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F94E59-62CC-45F4-8BB8-C93B7E3483A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>date and time</t>
   </si>
@@ -130,25 +136,25 @@
   </si>
   <si>
     <t>lgbm4gap.best.sub.csv</t>
+  </si>
+  <si>
+    <t>lgbm3gap</t>
+  </si>
+  <si>
+    <t>lgbm3gap.best.sub.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I7" sqref="I7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +669,32 @@
         <v>0.67664999999999997</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44170.554293981484</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>2.0064976976453401</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>0.56184000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/output/metric/all scores.xlsx
+++ b/output/metric/all scores.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Desktop\python projects\M5-kaggle\output\metric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F94E59-62CC-45F4-8BB8-C93B7E3483A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15A9A8A-6214-473A-80FB-8A76A87B2ADD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="5235" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>date and time</t>
   </si>
@@ -142,6 +143,9 @@
   </si>
   <si>
     <t>lgbm3gap.best.sub.csv</t>
+  </si>
+  <si>
+    <t>validation base with gap to select features</t>
   </si>
 </sst>
 </file>
@@ -476,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,4 +704,32 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E852B035-B45A-4176-9326-512D6BBB4129}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1">
+        <v>2.03591244965226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/output/metric/all scores.xlsx
+++ b/output/metric/all scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Desktop\python projects\M5-kaggle\output\metric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15A9A8A-6214-473A-80FB-8A76A87B2ADD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A905F0-A85C-4976-AC0C-DCDCC3EB8A3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5235" yWindow="5235" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>date and time</t>
   </si>
@@ -708,10 +708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E852B035-B45A-4176-9326-512D6BBB4129}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,6 +728,14 @@
         <v>2.03591244965226</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>2.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
